--- a/input-SOC-v2.xlsx
+++ b/input-SOC-v2.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdiaz\Dropbox\Research\Papers\ONGOING_aa SMCE at SONGS (Journal of Environmental Management)\01-analysis\songs-evaluation-tool-master-6\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E6662E-F7AB-4198-A4BD-66B9930DF19E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="699" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15040" tabRatio="699"/>
   </bookViews>
   <sheets>
     <sheet name="IMPACT-SOC" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>François Diaz-Maurin</author>
   </authors>
   <commentList>
-    <comment ref="AE3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AE3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="AF3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="AG3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Unit</t>
   </si>
@@ -228,15 +222,12 @@
   </si>
   <si>
     <t># of samples</t>
-  </si>
-  <si>
-    <t>A3:AG14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -359,9 +350,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -467,10 +462,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,56 +779,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="80.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="7.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="10" customWidth="1"/>
-    <col min="10" max="11" width="7.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="10" customWidth="1"/>
-    <col min="13" max="14" width="7.28515625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="10" customWidth="1"/>
-    <col min="16" max="17" width="7.28515625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="10" customWidth="1"/>
-    <col min="19" max="20" width="7.28515625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="10" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="13" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" style="10" customWidth="1"/>
-    <col min="25" max="26" width="7.28515625" style="13" customWidth="1"/>
-    <col min="27" max="27" width="7.28515625" style="10" customWidth="1"/>
-    <col min="28" max="29" width="7.28515625" style="13" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" style="3"/>
-    <col min="31" max="32" width="12.140625" style="10" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="13.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="80.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="10" customWidth="1"/>
+    <col min="7" max="8" width="7.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="10" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="10" customWidth="1"/>
+    <col min="13" max="14" width="7.33203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="10" customWidth="1"/>
+    <col min="16" max="17" width="7.33203125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="10" customWidth="1"/>
+    <col min="19" max="20" width="7.33203125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="10" customWidth="1"/>
+    <col min="22" max="23" width="7.33203125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" style="10" customWidth="1"/>
+    <col min="25" max="26" width="7.33203125" style="13" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" style="10" customWidth="1"/>
+    <col min="28" max="29" width="7.33203125" style="13" customWidth="1"/>
+    <col min="30" max="30" width="8.83203125" style="3"/>
+    <col min="31" max="32" width="12.1640625" style="10" customWidth="1"/>
+    <col min="33" max="33" width="12.1640625" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="4" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="D1" s="17"/>
       <c r="F1" s="3"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -858,7 +855,7 @@
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
     </row>
-    <row r="2" spans="1:34" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="14" customFormat="1" ht="30.75" customHeight="1">
       <c r="F2" s="35" t="s">
         <v>5</v>
       </c>
@@ -900,7 +897,7 @@
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="28">
       <c r="A3" s="15" t="s">
         <v>35</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="8" customFormat="1">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>267.76859504132233</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="8" customFormat="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>24</v>
@@ -1200,7 +1197,7 @@
         <v>267.76859504132233</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" s="16" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10">
         <v>2.2999999999999998</v>
@@ -1298,7 +1295,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" s="8" customFormat="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>25</v>
@@ -1398,7 +1395,7 @@
         <v>283.26511680855992</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" s="8" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>26</v>
@@ -1498,7 +1495,7 @@
         <v>222.46621256208954</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -1593,7 +1590,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +1691,7 @@
         <v>291.78003760315778</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34">
       <c r="B11" s="10">
         <v>2.8</v>
       </c>
@@ -1789,7 +1786,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
@@ -1884,7 +1881,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="B13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="B14" s="10">
         <v>2.11</v>
       </c>
@@ -2080,7 +2077,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2116,7 +2113,7 @@
       <c r="AG15" s="7"/>
       <c r="AH15" s="34"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="E16" s="10"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2151,61 +2148,61 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:8">
       <c r="E17" s="10"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8">
       <c r="E18" s="10"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:8">
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:8">
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:8">
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:8">
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:8">
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:8">
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:8">
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:8">
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:8">
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:8">
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:8">
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:8">
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>

--- a/input-SOC-v2.xlsx
+++ b/input-SOC-v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15040" tabRatio="699"/>
+    <workbookView xWindow="-29960" yWindow="2860" windowWidth="25040" windowHeight="15040" tabRatio="699"/>
   </bookViews>
   <sheets>
     <sheet name="IMPACT-SOC" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>François Diaz-Maurin</author>
   </authors>
   <commentList>
-    <comment ref="AE3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Unit</t>
   </si>
@@ -179,9 +179,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Duration of onsite storage at SONGS (after 2020)</t>
   </si>
   <si>
@@ -222,6 +219,9 @@
   </si>
   <si>
     <t># of samples</t>
+  </si>
+  <si>
+    <t>Dimension</t>
   </si>
 </sst>
 </file>
@@ -350,9 +350,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -462,14 +464,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,7 +783,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -790,7 +794,7 @@
   <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -800,8 +804,7 @@
     <col min="3" max="3" width="80.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="10" customWidth="1"/>
-    <col min="7" max="8" width="7.33203125" style="13" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" style="10" customWidth="1"/>
     <col min="10" max="11" width="7.33203125" style="13" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="10" customWidth="1"/>
@@ -816,9 +819,9 @@
     <col min="25" max="26" width="7.33203125" style="13" customWidth="1"/>
     <col min="27" max="27" width="7.33203125" style="10" customWidth="1"/>
     <col min="28" max="29" width="7.33203125" style="13" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" style="3"/>
-    <col min="31" max="32" width="12.1640625" style="10" customWidth="1"/>
-    <col min="33" max="33" width="12.1640625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" style="10" customWidth="1"/>
+    <col min="31" max="32" width="7.33203125" style="13" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="3"/>
     <col min="34" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -827,9 +830,9 @@
         <v>22</v>
       </c>
       <c r="D1" s="17"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -851,55 +854,56 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" spans="1:34" s="14" customFormat="1" ht="30.75" customHeight="1">
-      <c r="F2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35" t="s">
-        <v>15</v>
       </c>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="35"/>
       <c r="N2" s="35"/>
       <c r="O2" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
       <c r="R2" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
       <c r="U2" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V2" s="35"/>
       <c r="W2" s="35"/>
       <c r="X2" s="35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" s="35"/>
       <c r="Z2" s="35"/>
       <c r="AA2" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB2" s="35"/>
       <c r="AC2" s="35"/>
+      <c r="AD2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="28">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>34</v>
@@ -914,13 +918,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>9</v>
@@ -985,18 +989,18 @@
       <c r="AC3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="11"/>
+      <c r="AD3" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="AE3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH3" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="8" customFormat="1">
@@ -1007,7 +1011,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>12</v>
@@ -1015,23 +1019,21 @@
       <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="25">
+        <v>30</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
         <v>200</v>
       </c>
-      <c r="G4" s="19">
+      <c r="J4" s="19">
         <v>200</v>
       </c>
-      <c r="H4" s="19">
+      <c r="K4" s="19">
         <v>200</v>
-      </c>
-      <c r="I4" s="19">
-        <v>30</v>
-      </c>
-      <c r="J4" s="19">
-        <v>20</v>
-      </c>
-      <c r="K4" s="19">
-        <v>40</v>
       </c>
       <c r="L4" s="19">
         <v>30</v>
@@ -1043,13 +1045,13 @@
         <v>40</v>
       </c>
       <c r="O4" s="19">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P4" s="19">
         <v>20</v>
       </c>
       <c r="Q4" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R4" s="19">
         <v>60</v>
@@ -1061,13 +1063,13 @@
         <v>100</v>
       </c>
       <c r="U4" s="19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V4" s="19">
         <v>20</v>
       </c>
       <c r="W4" s="19">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="X4" s="19">
         <v>30</v>
@@ -1087,14 +1089,16 @@
       <c r="AC4" s="19">
         <v>40</v>
       </c>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="25">
+      <c r="AD4" s="19">
         <v>30</v>
       </c>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="25" t="b">
-        <v>0</v>
-      </c>
+      <c r="AE4" s="19">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="3"/>
       <c r="AH4" s="25">
         <v>267.76859504132233</v>
       </c>
@@ -1113,14 +1117,12 @@
       <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="19">
-        <v>200</v>
-      </c>
-      <c r="G5" s="19">
-        <v>200</v>
-      </c>
-      <c r="H5" s="19">
-        <v>200</v>
+      <c r="F5" s="25">
+        <v>30</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="25" t="b">
+        <v>0</v>
       </c>
       <c r="I5" s="19">
         <v>200</v>
@@ -1132,22 +1134,22 @@
         <v>200</v>
       </c>
       <c r="L5" s="19">
+        <v>200</v>
+      </c>
+      <c r="M5" s="19">
+        <v>200</v>
+      </c>
+      <c r="N5" s="19">
+        <v>200</v>
+      </c>
+      <c r="O5" s="19">
         <v>30</v>
-      </c>
-      <c r="M5" s="19">
-        <v>20</v>
-      </c>
-      <c r="N5" s="19">
-        <v>40</v>
-      </c>
-      <c r="O5" s="19">
-        <v>60</v>
       </c>
       <c r="P5" s="19">
         <v>20</v>
       </c>
       <c r="Q5" s="19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="R5" s="19">
         <v>60</v>
@@ -1159,13 +1161,13 @@
         <v>100</v>
       </c>
       <c r="U5" s="19">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="V5" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W5" s="19">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="X5" s="19">
         <v>90</v>
@@ -1177,22 +1179,24 @@
         <v>140</v>
       </c>
       <c r="AA5" s="19">
+        <v>90</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>140</v>
+      </c>
+      <c r="AD5" s="19">
         <v>30</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AE5" s="19">
         <v>20</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AF5" s="19">
         <v>40</v>
       </c>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="25">
-        <v>30</v>
-      </c>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="25" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG5" s="3"/>
       <c r="AH5" s="25">
         <v>267.76859504132233</v>
       </c>
@@ -1203,21 +1207,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
+        <v>37</v>
+      </c>
+      <c r="F6" s="25">
+        <v>30</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="25" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="19">
@@ -1239,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="19">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P6" s="19">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" s="19">
         <v>140</v>
@@ -1257,13 +1259,13 @@
         <v>100</v>
       </c>
       <c r="U6" s="19">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="V6" s="19">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="W6" s="19">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="X6" s="19">
         <v>110</v>
@@ -1283,14 +1285,16 @@
       <c r="AC6" s="19">
         <v>60</v>
       </c>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="25">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="25" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="19">
+        <v>110</v>
+      </c>
+      <c r="AE6" s="19">
+        <v>160</v>
+      </c>
+      <c r="AF6" s="19">
+        <v>60</v>
+      </c>
+      <c r="AG6" s="3"/>
       <c r="AH6" s="25">
         <v>400</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
@@ -1309,23 +1313,23 @@
       <c r="E7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="30">
+        <v>1.9994513922372859</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="H7" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
         <v>9.9321112826514213</v>
       </c>
-      <c r="G7" s="20">
+      <c r="J7" s="20">
         <v>7.7567426067347807</v>
       </c>
-      <c r="H7" s="20">
+      <c r="K7" s="20">
         <v>13.126319087739748</v>
-      </c>
-      <c r="I7" s="20">
-        <v>1.693606752729711</v>
-      </c>
-      <c r="J7" s="20">
-        <v>1.1296107343160331</v>
-      </c>
-      <c r="K7" s="20">
-        <v>2.2576027711433886</v>
       </c>
       <c r="L7" s="20">
         <v>1.693606752729711</v>
@@ -1337,13 +1341,13 @@
         <v>2.2576027711433886</v>
       </c>
       <c r="O7" s="20">
-        <v>3.0482713406259045</v>
+        <v>1.693606752729711</v>
       </c>
       <c r="P7" s="20">
         <v>1.1296107343160331</v>
       </c>
       <c r="Q7" s="20">
-        <v>5.4268186542917594</v>
+        <v>2.2576027711433886</v>
       </c>
       <c r="R7" s="20">
         <v>3.0482713406259045</v>
@@ -1355,13 +1359,13 @@
         <v>5.4268186542917594</v>
       </c>
       <c r="U7" s="20">
-        <v>1.693606752729711</v>
+        <v>3.0482713406259045</v>
       </c>
       <c r="V7" s="20">
         <v>1.1296107343160331</v>
       </c>
       <c r="W7" s="20">
-        <v>2.2576027711433886</v>
+        <v>5.4268186542917594</v>
       </c>
       <c r="X7" s="20">
         <v>1.693606752729711</v>
@@ -1381,16 +1385,16 @@
       <c r="AC7" s="20">
         <v>2.2576027711433886</v>
       </c>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="30">
-        <v>1.9994513922372859</v>
-      </c>
-      <c r="AF7" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="AG7" s="25" t="b">
-        <v>0</v>
-      </c>
+      <c r="AD7" s="20">
+        <v>1.693606752729711</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>1.1296107343160331</v>
+      </c>
+      <c r="AF7" s="20">
+        <v>2.2576027711433886</v>
+      </c>
+      <c r="AG7" s="3"/>
       <c r="AH7" s="25">
         <v>283.26511680855992</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -1409,14 +1413,14 @@
       <c r="E8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="19">
-        <v>10.594761322080478</v>
-      </c>
-      <c r="G8" s="19">
-        <v>10.594761322080478</v>
-      </c>
-      <c r="H8" s="19">
-        <v>10.594761322080478</v>
+      <c r="F8" s="30">
+        <v>1.5086418788144973</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8" s="25" t="b">
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <v>10.594761322080478</v>
@@ -1427,23 +1431,23 @@
       <c r="K8" s="19">
         <v>10.594761322080478</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
+        <v>10.594761322080478</v>
+      </c>
+      <c r="M8" s="19">
+        <v>10.594761322080478</v>
+      </c>
+      <c r="N8" s="19">
+        <v>10.594761322080478</v>
+      </c>
+      <c r="O8" s="20">
         <v>2.1113720079402762</v>
-      </c>
-      <c r="M8" s="20">
-        <v>1.5429100491934944</v>
-      </c>
-      <c r="N8" s="20">
-        <v>2.6798339666870583</v>
-      </c>
-      <c r="O8" s="20">
-        <v>3.8018827612146211</v>
       </c>
       <c r="P8" s="20">
         <v>1.5429100491934944</v>
       </c>
       <c r="Q8" s="20">
-        <v>5.6356321148190061</v>
+        <v>2.6798339666870583</v>
       </c>
       <c r="R8" s="20">
         <v>3.8018827612146211</v>
@@ -1455,13 +1459,13 @@
         <v>5.6356321148190061</v>
       </c>
       <c r="U8" s="20">
-        <v>5.1771947764179096</v>
+        <v>3.8018827612146211</v>
       </c>
       <c r="V8" s="20">
-        <v>2.6798339666870583</v>
+        <v>1.5429100491934944</v>
       </c>
       <c r="W8" s="20">
-        <v>7.579159661637874</v>
+        <v>5.6356321148190061</v>
       </c>
       <c r="X8" s="20">
         <v>5.1771947764179096</v>
@@ -1473,24 +1477,24 @@
         <v>7.579159661637874</v>
       </c>
       <c r="AA8" s="20">
+        <v>5.1771947764179096</v>
+      </c>
+      <c r="AB8" s="20">
+        <v>2.6798339666870583</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>7.579159661637874</v>
+      </c>
+      <c r="AD8" s="20">
         <v>2.1113720079402762</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AE8" s="20">
         <v>1.5429100491934944</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AF8" s="20">
         <v>2.6798339666870583</v>
       </c>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="30">
-        <v>1.5086418788144973</v>
-      </c>
-      <c r="AF8" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AG8" s="25" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG8" s="3"/>
       <c r="AH8" s="25">
         <v>222.46621256208954</v>
       </c>
@@ -1500,31 +1504,28 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
-        <v>2.8917910447761194E-2</v>
-      </c>
-      <c r="J9" s="28">
-        <v>3.0487804878048777E-3</v>
-      </c>
-      <c r="K9" s="28">
-        <v>0.10016025641025642</v>
+      <c r="F9" s="31">
+        <v>3.3386752136752136E-2</v>
+      </c>
+      <c r="H9" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
       </c>
       <c r="L9" s="28">
         <v>2.8917910447761194E-2</v>
@@ -1554,13 +1555,13 @@
         <v>0.10016025641025642</v>
       </c>
       <c r="U9" s="28">
-        <v>5.7835820895522388E-2</v>
+        <v>2.8917910447761194E-2</v>
       </c>
       <c r="V9" s="28">
-        <v>6.0975609756097554E-3</v>
+        <v>3.0487804878048777E-3</v>
       </c>
       <c r="W9" s="28">
-        <v>0.20032051282051283</v>
+        <v>0.10016025641025642</v>
       </c>
       <c r="X9" s="28">
         <v>5.7835820895522388E-2</v>
@@ -1580,11 +1581,14 @@
       <c r="AC9" s="28">
         <v>0.20032051282051283</v>
       </c>
-      <c r="AE9" s="31">
-        <v>3.3386752136752136E-2</v>
-      </c>
-      <c r="AG9" s="25" t="b">
-        <v>0</v>
+      <c r="AD9" s="28">
+        <v>5.7835820895522388E-2</v>
+      </c>
+      <c r="AE9" s="28">
+        <v>6.0975609756097554E-3</v>
+      </c>
+      <c r="AF9" s="28">
+        <v>0.20032051282051283</v>
       </c>
       <c r="AH9" s="25">
         <v>400</v>
@@ -1598,7 +1602,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>6</v>
@@ -1606,23 +1610,23 @@
       <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="27">
+        <v>390.2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H10" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
         <v>2270.6</v>
       </c>
-      <c r="G10" s="22">
+      <c r="J10" s="22">
         <v>2135.3000000000002</v>
       </c>
-      <c r="H10" s="22">
+      <c r="K10" s="22">
         <v>2541.1999999999998</v>
-      </c>
-      <c r="I10" s="22">
-        <v>300</v>
-      </c>
-      <c r="J10" s="22">
-        <v>200</v>
-      </c>
-      <c r="K10" s="22">
-        <v>496.8</v>
       </c>
       <c r="L10" s="22">
         <v>300</v>
@@ -1634,13 +1638,13 @@
         <v>496.8</v>
       </c>
       <c r="O10" s="22">
-        <v>606.6</v>
+        <v>300</v>
       </c>
       <c r="P10" s="22">
         <v>200</v>
       </c>
       <c r="Q10" s="22">
-        <v>1270.5999999999999</v>
+        <v>496.8</v>
       </c>
       <c r="R10" s="22">
         <v>606.6</v>
@@ -1652,13 +1656,13 @@
         <v>1270.5999999999999</v>
       </c>
       <c r="U10" s="22">
-        <v>300</v>
+        <v>606.6</v>
       </c>
       <c r="V10" s="22">
         <v>200</v>
       </c>
       <c r="W10" s="22">
-        <v>496.8</v>
+        <v>1270.5999999999999</v>
       </c>
       <c r="X10" s="22">
         <v>300</v>
@@ -1678,14 +1682,14 @@
       <c r="AC10" s="22">
         <v>496.8</v>
       </c>
-      <c r="AE10" s="27">
-        <v>390.2</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="AG10" s="27" t="b">
-        <v>0</v>
+      <c r="AD10" s="22">
+        <v>300</v>
+      </c>
+      <c r="AE10" s="22">
+        <v>200</v>
+      </c>
+      <c r="AF10" s="22">
+        <v>496.8</v>
       </c>
       <c r="AH10" s="27">
         <v>291.78003760315778</v>
@@ -1696,7 +1700,7 @@
         <v>2.8</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>6</v>
@@ -1704,82 +1708,82 @@
       <c r="E11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="F11" s="25">
+        <v>483.59692047184171</v>
+      </c>
+      <c r="H11" s="25" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="23">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
         <v>2241.1883561643835</v>
       </c>
-      <c r="J11" s="23">
+      <c r="M11" s="23">
         <v>2005.9383561643835</v>
       </c>
-      <c r="K11" s="23">
+      <c r="N11" s="23">
         <v>2610.6675228310505</v>
       </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="23">
-        <v>0</v>
-      </c>
-      <c r="N11" s="23">
-        <v>0</v>
-      </c>
       <c r="O11" s="23">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
         <v>656.73922500000003</v>
       </c>
-      <c r="P11" s="23">
+      <c r="S11" s="23">
         <v>287.28750000000002</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="T11" s="23">
         <v>1333.0139999999999</v>
       </c>
-      <c r="R11" s="23">
-        <v>0</v>
-      </c>
-      <c r="S11" s="23">
-        <v>0</v>
-      </c>
-      <c r="T11" s="23">
-        <v>0</v>
-      </c>
       <c r="U11" s="23">
+        <v>0</v>
+      </c>
+      <c r="V11" s="23">
+        <v>0</v>
+      </c>
+      <c r="W11" s="23">
+        <v>0</v>
+      </c>
+      <c r="X11" s="23">
         <v>1536.8775811643836</v>
       </c>
-      <c r="V11" s="23">
+      <c r="Y11" s="23">
         <v>761.4258561643835</v>
       </c>
-      <c r="W11" s="23">
+      <c r="Z11" s="23">
         <v>2901.5815228310503</v>
       </c>
-      <c r="X11" s="23">
+      <c r="AA11" s="23">
         <v>880.13835616438359</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="AB11" s="23">
         <v>474.13835616438354</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="AC11" s="23">
         <v>1568.5675228310502</v>
       </c>
-      <c r="AA11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="25">
-        <v>483.59692047184171</v>
-      </c>
-      <c r="AG11" s="25" t="b">
+      <c r="AD11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="23">
         <v>0</v>
       </c>
       <c r="AH11" s="25">
@@ -1799,83 +1803,83 @@
       <c r="E12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="F12" s="30">
+        <v>5.3523712391636913</v>
+      </c>
+      <c r="H12" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+      <c r="L12" s="24">
         <v>6.6497816352588943</v>
       </c>
-      <c r="J12" s="23">
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
+      <c r="M12" s="23">
+        <v>0</v>
+      </c>
+      <c r="N12" s="23">
         <v>11.496319126452976</v>
       </c>
-      <c r="L12" s="23">
+      <c r="O12" s="23">
         <v>11.220132987701069</v>
       </c>
-      <c r="M12" s="24">
+      <c r="P12" s="24">
         <v>3.4094245332863689</v>
       </c>
-      <c r="N12" s="23">
+      <c r="Q12" s="23">
         <v>21.142655864741108</v>
       </c>
-      <c r="O12" s="24">
+      <c r="R12" s="24">
         <v>7.5565700400669256</v>
       </c>
-      <c r="P12" s="24">
+      <c r="S12" s="24">
         <v>3.6367195021721268</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="T12" s="23">
         <v>11.496319126452976</v>
       </c>
-      <c r="R12" s="24">
+      <c r="U12" s="24">
         <v>6.0416100703005764</v>
       </c>
-      <c r="S12" s="24">
+      <c r="V12" s="24">
         <v>3.4094245332863689</v>
       </c>
-      <c r="T12" s="24">
+      <c r="W12" s="24">
         <v>8.4570623458964427</v>
       </c>
-      <c r="U12" s="24">
+      <c r="X12" s="24">
         <v>5.9121155666607965</v>
       </c>
-      <c r="V12" s="24">
+      <c r="Y12" s="24">
         <v>4.3512386990724439</v>
       </c>
-      <c r="W12" s="24">
+      <c r="Z12" s="24">
         <v>8.9520517787953491</v>
       </c>
-      <c r="X12" s="24">
+      <c r="AA12" s="24">
         <v>4.2165083184599688</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="AB12" s="24">
         <v>2.362283273839878</v>
       </c>
-      <c r="Z12" s="24">
+      <c r="AC12" s="24">
         <v>5.7805609382967873</v>
       </c>
-      <c r="AA12" s="23">
+      <c r="AD12" s="23">
         <v>14.693892624936256</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AE12" s="24">
         <v>1.7876083630800612</v>
       </c>
-      <c r="AC12" s="23">
+      <c r="AF12" s="23">
         <v>32.114227434982148</v>
-      </c>
-      <c r="AE12" s="30">
-        <v>5.3523712391636913</v>
-      </c>
-      <c r="AG12" s="25" t="b">
-        <v>0</v>
       </c>
       <c r="AH12" s="25">
         <v>400</v>
@@ -1886,25 +1890,25 @@
         <v>30</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="23">
+        <v>37</v>
+      </c>
+      <c r="F13" s="25">
+        <v>804.40499999999986</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H13" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
         <v>4826.4299999999994</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23">
-        <v>4826.4299999999994</v>
-      </c>
-      <c r="I13" s="23">
-        <v>723.96449999999982</v>
       </c>
       <c r="J13" s="23">
         <v>0</v>
@@ -1919,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="N13" s="23">
+        <v>4826.4299999999994</v>
+      </c>
+      <c r="O13" s="23">
+        <v>723.96449999999982</v>
+      </c>
+      <c r="P13" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="23">
         <v>965.28599999999983</v>
-      </c>
-      <c r="O13" s="23">
-        <v>1447.9289999999996</v>
-      </c>
-      <c r="P13" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>2413.2149999999997</v>
       </c>
       <c r="R13" s="23">
         <v>1447.9289999999996</v>
@@ -1940,13 +1944,13 @@
         <v>2413.2149999999997</v>
       </c>
       <c r="U13" s="23">
-        <v>723.96449999999982</v>
+        <v>1447.9289999999996</v>
       </c>
       <c r="V13" s="23">
         <v>0</v>
       </c>
       <c r="W13" s="23">
-        <v>3378.5009999999993</v>
+        <v>2413.2149999999997</v>
       </c>
       <c r="X13" s="23">
         <v>723.96449999999982</v>
@@ -1964,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="AC13" s="23">
+        <v>3378.5009999999993</v>
+      </c>
+      <c r="AD13" s="23">
+        <v>723.96449999999982</v>
+      </c>
+      <c r="AE13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="23">
         <v>965.28599999999983</v>
-      </c>
-      <c r="AE13" s="25">
-        <v>804.40499999999986</v>
-      </c>
-      <c r="AF13" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AG13" s="32" t="b">
-        <v>1</v>
       </c>
       <c r="AH13" s="25">
         <v>400</v>
@@ -1984,7 +1988,7 @@
         <v>2.11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>13</v>
@@ -1992,14 +1996,14 @@
       <c r="E14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="21">
-        <v>132.42517312500001</v>
-      </c>
-      <c r="G14" s="21">
-        <v>57.45750000000001</v>
-      </c>
-      <c r="H14" s="21">
-        <v>275.22142500000001</v>
+      <c r="F14" s="25">
+        <v>45.870237500000002</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H14" s="25" t="b">
+        <v>0</v>
       </c>
       <c r="I14" s="21">
         <v>132.42517312500001</v>
@@ -2019,14 +2023,14 @@
       <c r="N14" s="21">
         <v>275.22142500000001</v>
       </c>
-      <c r="O14" s="33">
-        <v>2.3701218749999997</v>
+      <c r="O14" s="21">
+        <v>132.42517312500001</v>
       </c>
       <c r="P14" s="21">
-        <v>0</v>
+        <v>57.45750000000001</v>
       </c>
       <c r="Q14" s="21">
-        <v>17.23725</v>
+        <v>275.22142500000001</v>
       </c>
       <c r="R14" s="33">
         <v>2.3701218749999997</v>
@@ -2038,13 +2042,13 @@
         <v>17.23725</v>
       </c>
       <c r="U14" s="33">
-        <v>3.0165187500000004</v>
+        <v>2.3701218749999997</v>
       </c>
       <c r="V14" s="21">
         <v>0</v>
       </c>
       <c r="W14" s="21">
-        <v>20.684699999999996</v>
+        <v>17.23725</v>
       </c>
       <c r="X14" s="33">
         <v>3.0165187500000004</v>
@@ -2064,14 +2068,14 @@
       <c r="AC14" s="21">
         <v>20.684699999999996</v>
       </c>
-      <c r="AE14" s="25">
-        <v>45.870237500000002</v>
-      </c>
-      <c r="AF14" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AG14" s="25" t="b">
-        <v>0</v>
+      <c r="AD14" s="33">
+        <v>3.0165187500000004</v>
+      </c>
+      <c r="AE14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>20.684699999999996</v>
       </c>
       <c r="AH14" s="25">
         <v>400</v>
@@ -2083,8 +2087,8 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2107,17 +2111,16 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="9"/>
       <c r="AH15" s="34"/>
     </row>
     <row r="16" spans="1:34">
       <c r="E16" s="10"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -2139,86 +2142,82 @@
       <c r="AA16"/>
       <c r="AB16"/>
       <c r="AC16"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH16" s="32">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AH16" s="32"/>
+    </row>
+    <row r="17" spans="5:11">
       <c r="E17" s="10"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="5:8">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="5:11">
       <c r="E18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="5:8">
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="5:8">
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="5:8">
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="5:8">
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="5:8">
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="5:8">
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="5:8">
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="5:8">
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="5:8">
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="5:8">
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="5:8">
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="5:8">
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F4:AC4">
+  <conditionalFormatting sqref="I4:AF4">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2230,7 +2229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:AC5">
+  <conditionalFormatting sqref="I5:AF5">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2242,7 +2241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:AC7">
+  <conditionalFormatting sqref="I7:AF7">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2254,7 +2253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:AC8">
+  <conditionalFormatting sqref="I8:AF8">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2266,7 +2265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:AC9">
+  <conditionalFormatting sqref="I9:AF9">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2278,7 +2277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:AC14">
+  <conditionalFormatting sqref="I14:AF14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2290,7 +2289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:AC13">
+  <conditionalFormatting sqref="I13:AF13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2302,7 +2301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:AC12">
+  <conditionalFormatting sqref="I12:AF12">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2314,7 +2313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:AC10">
+  <conditionalFormatting sqref="I10:AF10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2326,7 +2325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:AC6">
+  <conditionalFormatting sqref="I6:AF6">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2338,7 +2337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:AC11">
+  <conditionalFormatting sqref="I11:AF11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
